--- a/Entrega 4/Pruebas/RecuperarContraseña.xlsx
+++ b/Entrega 4/Pruebas/RecuperarContraseña.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53393D41-E7AB-4A4B-8CAB-BDFC79F4FCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,170 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Escenarios alternativos</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Escenario</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>El correo solicitado para la recuperacion de la contraseña no es correcto</t>
+  </si>
+  <si>
+    <t>El correo solicitado para la recuperacion de la contraseña es correcto</t>
+  </si>
+  <si>
+    <t>El boton de "recuperar contraseña" dirige correctamente</t>
+  </si>
+  <si>
+    <t>El link de recuperacion se envia al correo del usuario</t>
+  </si>
+  <si>
+    <t>Cuando el link se usa una vez se desactiva</t>
+  </si>
+  <si>
+    <t>La nueva contraseña no tiene la longitud minima</t>
+  </si>
+  <si>
+    <t>La nueva contraseña excede la longitud maxima</t>
+  </si>
+  <si>
+    <t>La nueva contraseña tiene caracteres no admitidos</t>
+  </si>
+  <si>
+    <t>La nueva contraseña no tiene minusculas</t>
+  </si>
+  <si>
+    <t>La nueva contraseña no tiene mayuscula</t>
+  </si>
+  <si>
+    <t>El link de recuperacion tiene un tiempo de duracion</t>
+  </si>
+  <si>
+    <t>Al cambiar la contraseña se redirige a la pagina de inicio de sesion</t>
+  </si>
+  <si>
+    <t>El correo ingresado para recuperar la contraseña es incorrecto</t>
+  </si>
+  <si>
+    <t>Error: Correo invalido</t>
+  </si>
+  <si>
+    <t>El correo ingresado para recuperar la contraseña es correcto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envia un correo con el token de recuperacion </t>
+  </si>
+  <si>
+    <t>Al dar click en "recuperar contraseña" se envia a la pagina "recuperacionDeContraseña"</t>
+  </si>
+  <si>
+    <t>Se muestra correctamente la pagina de recuperacion</t>
+  </si>
+  <si>
+    <t>El correo se envia correctamente con un token valido a la direccion indicada</t>
+  </si>
+  <si>
+    <t>El link con el token enviado despues de usarse no se puede volver a usar</t>
+  </si>
+  <si>
+    <t>El link solo se usa una vez</t>
+  </si>
+  <si>
+    <t>La nueva contraseña es igual a la actual</t>
+  </si>
+  <si>
+    <t>La nueva contraseña es igual a la anterior</t>
+  </si>
+  <si>
+    <t>Error: Contraseña debe ser diferente</t>
+  </si>
+  <si>
+    <t>La contraseña es menor a 8 caracteres</t>
+  </si>
+  <si>
+    <t>El token de recuperacion es enviado al correo guardado</t>
+  </si>
+  <si>
+    <t>Error: Contraseña de tamaño insuficiente</t>
+  </si>
+  <si>
+    <t>La contraseña es mayor a 50 caracteres</t>
+  </si>
+  <si>
+    <t>Error: Tamaño de la contraseña invalido</t>
+  </si>
+  <si>
+    <t>La contraseña tiene caracteres no admitidos</t>
+  </si>
+  <si>
+    <t>La contraseña no contiene al menos un elemento en mayuscula</t>
+  </si>
+  <si>
+    <t>La contraseña no contiene al menos un elemento en minusculas</t>
+  </si>
+  <si>
+    <t>El link enviado estara activo en el tiempo establecido</t>
+  </si>
+  <si>
+    <t>Cuando se cambia la contraseña correctamente se regresa a la pagina de inicio de sesion</t>
+  </si>
+  <si>
+    <t>Error: Caracteres invalidos</t>
+  </si>
+  <si>
+    <t>Error: La contraseña debe tener al menos un elemento mayus</t>
+  </si>
+  <si>
+    <t>Error: La contraseña debe tener al menos un elemento en minuscula</t>
+  </si>
+  <si>
+    <t>El link no funciona despues del tiempo establecido</t>
+  </si>
+  <si>
+    <t>Se muestra la pagina de inicio de sesion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +206,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +527,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Entrega 4/Pruebas/RecuperarContraseña.xlsx
+++ b/Entrega 4/Pruebas/RecuperarContraseña.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53393D41-E7AB-4A4B-8CAB-BDFC79F4FCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AAAAC-8331-45AB-B9B4-C74517590F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Escenarios alternativos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -157,13 +156,73 @@
   </si>
   <si>
     <t>Se muestra la pagina de inicio de sesion</t>
+  </si>
+  <si>
+    <t>Escenarios</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>ContraseñaNueva</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Contraseña reiniciada</t>
+  </si>
+  <si>
+    <t>La contraseña se recupera de forma correcta</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>El usuario accede con la nueva contraseña</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>CorreoToken</t>
+  </si>
+  <si>
+    <t>A01701248@itesm.mx</t>
+  </si>
+  <si>
+    <t>abcABC123.</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abcABC123x10</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>abc123.</t>
+  </si>
+  <si>
+    <t>ABC123.</t>
+  </si>
+  <si>
+    <t>Estado Prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +248,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -222,14 +310,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,11 +332,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,11 +641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.6328125" bestFit="1" customWidth="1"/>
@@ -542,261 +653,287 @@
     <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.5">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.5">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:4" ht="15.5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
+    <row r="15" spans="1:4" ht="15.5">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
+    <row r="16" spans="1:4" ht="15.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5">
+      <c r="A27" s="14"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5">
+      <c r="A28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -804,4 +941,883 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF3FA8-7B4E-418F-A66B-F16848700083}">
+  <dimension ref="B3:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="20.5">
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.5">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.5">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.5">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.5">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.5">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.5">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.5">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.5">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.5">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.5">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.5">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.5">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.5">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.5">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926094B7-3F2A-4865-B323-8300CE14EE48}">
+  <dimension ref="B4:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="20.5">
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.5">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.5">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.5">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.5">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.5">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.5">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.5">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.5">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.5">
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.5">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.5">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.5">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.5">
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.5">
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.5">
+      <c r="B19" s="4">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>